--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10515"/>
+    <workbookView windowWidth="21495" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -57,33 +79,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,6 +99,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -105,52 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -158,30 +182,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,6 +192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,7 +210,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,102 +318,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,48 +373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,9 +397,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,17 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,184 +483,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,8 +986,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1022,11 +1025,9 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2"/>
       <c r="G2">
         <v>5</v>
       </c>
@@ -1061,15 +1062,12 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4"/>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4"/>
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4"/>
       <c r="G4">
         <v>7</v>
       </c>
@@ -1104,15 +1102,12 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6"/>
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6"/>
       <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6"/>
       <c r="G6">
         <v>9</v>
       </c>
@@ -1147,15 +1142,12 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8"/>
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8"/>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8"/>
       <c r="G8">
         <v>11</v>
       </c>
@@ -1190,15 +1182,12 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10"/>
       <c r="C10">
         <v>11</v>
       </c>
-      <c r="D10"/>
       <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10"/>
       <c r="G10">
         <v>13</v>
       </c>
@@ -1233,15 +1222,12 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12"/>
       <c r="C12">
         <v>13</v>
       </c>
-      <c r="D12"/>
       <c r="E12">
         <v>14</v>
       </c>
-      <c r="F12"/>
       <c r="G12">
         <v>15</v>
       </c>
@@ -1276,15 +1262,12 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14"/>
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14"/>
       <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14"/>
       <c r="G14">
         <v>17</v>
       </c>
@@ -1319,15 +1302,12 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16"/>
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="D16"/>
       <c r="E16">
         <v>18</v>
       </c>
-      <c r="F16"/>
       <c r="G16">
         <v>19</v>
       </c>
@@ -1362,15 +1342,12 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18"/>
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18"/>
       <c r="E18">
         <v>20</v>
       </c>
-      <c r="F18"/>
       <c r="G18">
         <v>21</v>
       </c>
@@ -1405,15 +1382,12 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20"/>
       <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20"/>
       <c r="E20">
         <v>22</v>
       </c>
-      <c r="F20"/>
       <c r="G20">
         <v>23</v>
       </c>
@@ -1448,15 +1422,12 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22"/>
       <c r="C22">
         <v>23</v>
       </c>
-      <c r="D22"/>
       <c r="E22">
         <v>24</v>
       </c>
-      <c r="F22"/>
       <c r="G22">
         <v>25</v>
       </c>
@@ -1491,15 +1462,12 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24"/>
       <c r="C24">
         <v>25</v>
       </c>
-      <c r="D24"/>
       <c r="E24">
         <v>26</v>
       </c>
-      <c r="F24"/>
       <c r="G24">
         <v>27</v>
       </c>
@@ -1531,14 +1499,268 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D10:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="4:10">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
